--- a/20220207/김다운_20220207_NACL.xlsx
+++ b/20220207/김다운_20220207_NACL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Multicampus\Cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC78186F-30CF-4D2E-A819-356D82A31568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E643FA88-2691-43A3-9B43-65265BF097CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{0D4BF168-B956-47CF-B3F9-890E1E15A155}"/>
   </bookViews>
@@ -113,14 +113,13 @@
   </si>
   <si>
     <t>사용가능 범위</t>
+  </si>
+  <si>
+    <t>사용가능 범위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CIDR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -533,7 +532,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -553,7 +552,7 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -561,7 +560,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>2000</v>
@@ -616,10 +615,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
